--- a/data/trans_camb/P0901-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 1,3</t>
+          <t>-5,26; 2,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 5,99</t>
+          <t>-2,06; 5,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,95</t>
+          <t>-3,31; 3,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,07</t>
+          <t>-6,56; 4,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,16</t>
+          <t>-6,7; 4,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,27</t>
+          <t>-4,7; 4,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,61</t>
+          <t>-4,43; 1,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,92</t>
+          <t>-2,26; 4,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,41</t>
+          <t>-2,5; 3,03</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,75; 22,2</t>
+          <t>-53,5; 35,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 93,32</t>
+          <t>-21,42; 98,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 66,22</t>
+          <t>-34,52; 61,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 39,98</t>
+          <t>-41,07; 42,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 51,5</t>
+          <t>-40,48; 47,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 43,51</t>
+          <t>-29,66; 45,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 18,84</t>
+          <t>-38,11; 21,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 46,53</t>
+          <t>-19,35; 50,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 41,91</t>
+          <t>-20,8; 36,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,88</t>
+          <t>2,65; 10,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,09</t>
+          <t>-1,95; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,12</t>
+          <t>1,43; 8,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 7,05</t>
+          <t>-3,13; 7,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,28</t>
+          <t>-3,46; 5,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 8,22</t>
+          <t>-0,46; 8,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,77</t>
+          <t>1,19; 7,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,55</t>
+          <t>-1,77; 4,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,33</t>
+          <t>1,89; 7,55</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,76; 309,23</t>
+          <t>31,25; 289,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 149,4</t>
+          <t>-31,29; 130,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 255,0</t>
+          <t>15,69; 246,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 88,87</t>
+          <t>-26,7; 89,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 79,46</t>
+          <t>-28,29; 75,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 106,76</t>
+          <t>-3,66; 106,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 121,14</t>
+          <t>13,37; 126,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 75,05</t>
+          <t>-19,12; 69,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 116,52</t>
+          <t>20,85; 123,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,7</t>
+          <t>0,55; 8,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,18</t>
+          <t>-2,97; 4,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 7,26</t>
+          <t>-7,45; 7,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 7,09</t>
+          <t>-9,14; 7,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 9,61</t>
+          <t>-8,29; 9,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 12,6</t>
+          <t>-5,5; 11,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,16</t>
+          <t>-0,48; 7,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,48</t>
+          <t>-3,01; 4,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 7,1</t>
+          <t>-8,62; 7,47</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 108,27</t>
+          <t>4,66; 106,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 51,12</t>
+          <t>-27,11; 53,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 79,65</t>
+          <t>-63,59; 83,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 44,35</t>
+          <t>-34,46; 40,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 54,92</t>
+          <t>-32,73; 58,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 71,11</t>
+          <t>-21,93; 63,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 66,25</t>
+          <t>-3,44; 66,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 41,49</t>
+          <t>-20,23; 39,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,3; 59,19</t>
+          <t>-59,53; 61,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,91</t>
+          <t>0,48; 6,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,36</t>
+          <t>-1,87; 3,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,6</t>
+          <t>3,81; 9,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,7</t>
+          <t>-2,94; 4,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,09</t>
+          <t>-3,28; 3,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 3,59</t>
+          <t>-8,42; 3,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,67</t>
+          <t>0,29; 4,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,18</t>
+          <t>-1,37; 3,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,14</t>
+          <t>-1,93; 5,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,49; 57,99</t>
+          <t>4,15; 65,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 34,27</t>
+          <t>-14,92; 34,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,92; 97,12</t>
+          <t>31,61; 94,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 36,45</t>
+          <t>-18,36; 36,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 31,78</t>
+          <t>-19,76; 31,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 26,13</t>
+          <t>-50,21; 28,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,87; 40,34</t>
+          <t>2,32; 41,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 27,76</t>
+          <t>-10,61; 27,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 52,91</t>
+          <t>-13,96; 51,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,76</t>
+          <t>-2,49; 6,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 7,79</t>
+          <t>-1,14; 7,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 13,02</t>
+          <t>3,2; 12,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,65; 17,16</t>
+          <t>7,78; 17,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,6</t>
+          <t>4,9; 13,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,19; 13,63</t>
+          <t>2,36; 14,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,83</t>
+          <t>4,98; 11,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,22</t>
+          <t>3,22; 9,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,32</t>
+          <t>4,56; 12,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 77,13</t>
+          <t>-17,65; 70,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 86,57</t>
+          <t>-8,88; 79,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,84; 147,08</t>
+          <t>21,68; 143,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,43; 122,85</t>
+          <t>43,63; 129,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,16; 102,07</t>
+          <t>26,76; 102,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,84; 101,36</t>
+          <t>14,87; 101,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>31,45; 99,16</t>
+          <t>31,94; 91,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,79; 77,69</t>
+          <t>19,84; 76,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27,36; 98,65</t>
+          <t>30,82; 99,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,09</t>
+          <t>-1,68; 5,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,74</t>
+          <t>-3,39; 2,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,54</t>
+          <t>-3,35; 2,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,59</t>
+          <t>1,72; 8,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,71</t>
+          <t>0,65; 7,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,23</t>
+          <t>1,74; 8,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,03</t>
+          <t>1,39; 7,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,9</t>
+          <t>-0,26; 6,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,15</t>
+          <t>0,32; 6,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 271,35</t>
+          <t>-41,24; 267,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,19; 155,09</t>
+          <t>-71,77; 145,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,65; 148,78</t>
+          <t>-73,35; 136,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,43; 47,39</t>
+          <t>8,27; 48,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,53; 43,13</t>
+          <t>2,7; 42,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>11,33; 50,61</t>
+          <t>8,83; 49,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,78; 46,49</t>
+          <t>8,55; 47,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 39,34</t>
+          <t>-1,42; 39,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,69; 40,98</t>
+          <t>1,18; 40,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,63</t>
+          <t>1,53; 4,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,98</t>
+          <t>-0,04; 2,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,68</t>
+          <t>0,76; 5,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,33</t>
+          <t>2,66; 6,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,04</t>
+          <t>1,18; 5,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,07</t>
+          <t>-0,56; 5,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,98</t>
+          <t>2,39; 5,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,52</t>
+          <t>1,18; 3,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,97</t>
+          <t>1,04; 4,88</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>16,21; 55,95</t>
+          <t>15,16; 53,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 35,32</t>
+          <t>-0,54; 35,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12,7; 68,31</t>
+          <t>8,93; 65,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,6; 41,03</t>
+          <t>15,1; 42,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>7,29; 32,79</t>
+          <t>6,76; 32,76</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 31,85</t>
+          <t>-2,69; 33,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,47; 41,26</t>
+          <t>17,57; 41,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,62; 29,01</t>
+          <t>8,92; 28,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,63; 40,62</t>
+          <t>9,18; 39,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P0901-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
